--- a/doors-detector/results/house7_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house7_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7702689687934018</v>
+        <v>0.7787635695805429</v>
       </c>
       <c r="F2" t="n">
         <v>520</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3517857142857143</v>
+        <v>0.3438775510204081</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5231591637884133</v>
+        <v>0.5634632683705404</v>
       </c>
       <c r="F4" t="n">
         <v>124</v>
       </c>
       <c r="G4" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7828262260637545</v>
+        <v>0.7819831009002004</v>
       </c>
       <c r="F5" t="n">
         <v>520</v>
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3737484737484738</v>
       </c>
       <c r="F6" t="n">
         <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.573887219801576</v>
+        <v>0.5742543751370474</v>
       </c>
       <c r="F7" t="n">
         <v>124</v>
       </c>
       <c r="G7" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" t="n">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7791295742626616</v>
+        <v>0.7754553416340322</v>
       </c>
       <c r="F8" t="n">
         <v>520</v>
       </c>
       <c r="G8" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H8" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.308390022675737</v>
+        <v>0.2825396825396825</v>
       </c>
       <c r="F9" t="n">
         <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5563187925131472</v>
+        <v>0.5551390191690477</v>
       </c>
       <c r="F10" t="n">
         <v>124</v>
       </c>
       <c r="G10" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H10" t="n">
-        <v>225</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7881442488786882</v>
+        <v>0.7951080335196857</v>
       </c>
       <c r="F11" t="n">
         <v>520</v>
       </c>
       <c r="G11" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H11" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5791569711500492</v>
+        <v>0.564748344462455</v>
       </c>
       <c r="F13" t="n">
         <v>124</v>
       </c>
       <c r="G13" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13" t="n">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8147792110734365</v>
+        <v>0.8206415793590045</v>
       </c>
       <c r="F14" t="n">
         <v>520</v>
       </c>
       <c r="G14" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H14" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3724489795918367</v>
+        <v>0.3979591836734693</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6438247932365641</v>
+        <v>0.6188090192949786</v>
       </c>
       <c r="F16" t="n">
         <v>124</v>
       </c>
       <c r="G16" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H16" t="n">
         <v>239</v>
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7238492074765488</v>
+        <v>0.8344316560101944</v>
       </c>
       <c r="F17" t="n">
         <v>520</v>
       </c>
       <c r="G17" t="n">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="H17" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="F18" t="n">
         <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.607932839038495</v>
+        <v>0.6289731547860368</v>
       </c>
       <c r="F19" t="n">
         <v>124</v>
       </c>
       <c r="G19" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H19" t="n">
-        <v>291</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
